--- a/testdata/userDetails.xlsx
+++ b/testdata/userDetails.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Numpyninja\Selenium_Hackathon\Team10_BDDLearners\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Numpyninja\Selenium_Hackathon\Team10_BDDLearners\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39512577-AAD6-4ABA-9ABE-1DD75668B665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3D695-23DE-4FAC-B8BF-087319DDB0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F30750BA-2A34-499A-B599-430A12565D80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F30750BA-2A34-499A-B599-430A12565D80}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
   <si>
     <t>Last name</t>
   </si>
@@ -214,12 +215,132 @@
   </si>
   <si>
     <t>zeroOneTwo</t>
+  </si>
+  <si>
+    <t>NewAssignment</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment Name </t>
+  </si>
+  <si>
+    <t>Assignment Description</t>
+  </si>
+  <si>
+    <t>Grade By</t>
+  </si>
+  <si>
+    <t>Assignment Due Date</t>
+  </si>
+  <si>
+    <t>Assignment File 1</t>
+  </si>
+  <si>
+    <t>Assignment File 3</t>
+  </si>
+  <si>
+    <t>Assignment File 2</t>
+  </si>
+  <si>
+    <t>invalidValues</t>
+  </si>
+  <si>
+    <t>validAllFields</t>
+  </si>
+  <si>
+    <t>Sep23-BDDlearners-Team10-SDET</t>
+  </si>
+  <si>
+    <t>BDDlearners-Team10-batch</t>
+  </si>
+  <si>
+    <t>BDDlearners-assignment</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>U83245</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>cucumber BDD framework</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>InvalidOptionalFields</t>
+  </si>
+  <si>
+    <t>Assignment File 4</t>
+  </si>
+  <si>
+    <t>Assignment File 5</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>MissingProgramName</t>
+  </si>
+  <si>
+    <t>MissingAssignmentName</t>
+  </si>
+  <si>
+    <t>MissingGradeBy</t>
+  </si>
+  <si>
+    <t>MissingBatchNumber</t>
+  </si>
+  <si>
+    <t>MissingAssignmentDuedate</t>
+  </si>
+  <si>
+    <t>Passeddate</t>
+  </si>
+  <si>
+    <t>updateAssignment</t>
+  </si>
+  <si>
+    <t>BDDlearners-updated</t>
+  </si>
+  <si>
+    <t>updateValidAllFields</t>
+  </si>
+  <si>
+    <t>Sep23-BDDlearners-Team10-SDET-updated</t>
+  </si>
+  <si>
+    <t>BDDlearners-Team10-batch-updated</t>
+  </si>
+  <si>
+    <t>InvalidOptionalFieldsUpdate</t>
+  </si>
+  <si>
+    <t>update 12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,13 +392,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA43408E-C958-45DD-BF39-33AC597DC9D6}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,4 +1077,535 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66656CB-CB2E-4A93-A05C-A8A9874B47BA}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>4321</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>12345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>12345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>400</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45184</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>